--- a/Homework-1/testegg.xlsx.xlsx
+++ b/Homework-1/testegg.xlsx.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
   <si>
     <t>Перепелинные яйца - это уникальный и практически универсальный продукт. Кроме употребления в пищу может использоваться в косметических целях.</t>
   </si>
@@ -40,40 +40,19 @@
     <t>перепелинное яйцо</t>
   </si>
   <si>
-    <t>1 белок+1 ч.л. Лимонного сока</t>
-  </si>
-  <si>
     <t>Смесь устраняет жирный блеск, борется с воспалениями и пигментными пятнами.</t>
   </si>
   <si>
-    <t>1 белок+1 ч.л.мёда</t>
-  </si>
-  <si>
     <t> Омолаживающий, подтягивающий и тонизирующий эффект виден уже после первой процедуры.</t>
   </si>
   <si>
-    <t>1 белок+2ст.л.молотой петрушки,щавеля или укропа</t>
-  </si>
-  <si>
     <t> Отбеливающее средство, которое улучшает цвет лица</t>
   </si>
   <si>
     <t>Увлажняет и тонизирует кожу лица</t>
   </si>
   <si>
-    <t>1 белок+1ст.л.пюрированных ягод</t>
-  </si>
-  <si>
-    <t>1 белок+2 ч.л. Белой глины</t>
-  </si>
-  <si>
     <t>омолаживающее средство, подтягивающее контур лица и устраняющее морщины</t>
-  </si>
-  <si>
-    <t>1 белок+2 ч.л. Голубой глины</t>
-  </si>
-  <si>
-    <t>3 желтка+2 ст.л. Овсяных хлопьев+1 ч.л. Мёда</t>
   </si>
   <si>
     <t>мягкость кожи и увлажнение</t>
@@ -113,22 +92,10 @@
     <t>2 белка+натертый картофель</t>
   </si>
   <si>
-    <t>2 белка+пюре авокадо</t>
-  </si>
-  <si>
     <t>Состав обладает прекрасным омолаживающим действием, увлажняет, борется с отеками, разглаживает морщинки.</t>
   </si>
   <si>
     <t>питательные свойства, увлажняет, слегка отбеливает кожный покров, борется с пигментными пятнами.</t>
-  </si>
-  <si>
-    <t>1 белок+1ст.л.сметаны</t>
-  </si>
-  <si>
-    <t>1 белок+2ст.л.белого йогурта</t>
-  </si>
-  <si>
-    <t>Питательный эффекрт, смягчает и увлажняет кожу лица</t>
   </si>
   <si>
     <t>На пищевые свойства тестирование проводится не будет.</t>
@@ -159,28 +126,100 @@
     </r>
   </si>
   <si>
-    <t>1 белок+1ч.л.крахмала+1 ч.л. Лимонного сока</t>
-  </si>
-  <si>
     <t>осветляет пигментные пятна, улучшает цвет лица, уменьшает количество морщи</t>
   </si>
   <si>
-    <t>2 целых яйца+1ч.л.масла миндаля,1 капля масла разморина</t>
-  </si>
-  <si>
     <t>уменьшают количество и глубину морщин</t>
   </si>
   <si>
-    <t>2 белка+пюре половины яблока</t>
-  </si>
-  <si>
     <t>Смягчает кожу,увлажняет, выравнивает цвет</t>
   </si>
   <si>
-    <t>3 белка+пюре огурца</t>
-  </si>
-  <si>
     <t>Убирает акне, осветвляет пигментные пятна, улучшает цвет лица</t>
+  </si>
+  <si>
+    <t>Отделить желток от белка с помощью ножа и ложки, Вылить белок в керамическую тарелку, Размешать ингредиенты до однородности, нанести на лицо, подождать 15-20 минут, смыть  проточной тёплой водой</t>
+  </si>
+  <si>
+    <t>Отделить желток от белка с помощью ножа и ложки, Вылить белок в керамическую тарелку. Авокадо очистить, тарерть на тёрке, поместить в тарелку с белаками. Размешать ингредиенты до однородности, нанести на лицо, подождать 15-20 минут, смыть  проточной тёплой водой</t>
+  </si>
+  <si>
+    <t>Отделить желток от белка с помощью ножа и ложки, Вылить белок в керамическую тарелку. Картофель очистить, натереть на тёрке, поместить в тарелку с белаками. Размешать ингредиенты до однородности, нанести на лицо, подождать 15-20 минут, смыть  проточной тёплой водой</t>
+  </si>
+  <si>
+    <t>Отделить желток от белка с помощью ножа и ложки, Вылить белок в керамическую тарелку. Добавить 1 ст.л. Сметаны. Размешать ингредиенты до однородности, нанести на лицо, подождать 15-20 минут, смыть  проточной тёплой водой</t>
+  </si>
+  <si>
+    <t>Отделить желток от белка с помощью ножа и ложки, Вылить белок в керамическую тарелку. Добавить 1 ч.л.крахмала и 1ч.л. Лимонного сока. Размешать ингредиенты до однородности, нанести на лицо, подождать 15-20 минут, смыть  проточной тёплой водой</t>
+  </si>
+  <si>
+    <t>Разбить 2  яйца в керамическую тарелку, добавить 1 ч.л. Масла мтиндаля т 1 каплю масла разморина. Смешать до однородности. нанести на лицо, подождать 15-20 минут, смыть  проточной тёплой водой</t>
+  </si>
+  <si>
+    <t>Отделить белок от желтка с помощью ножа и ложки. Очистить яблоко от кожуру, натереть на тёрке. Смешать до однородности в кермаческой тарелке.нанести на лицо, подождать 15-20 минут, смыть  проточной тёплой водой</t>
+  </si>
+  <si>
+    <t>Отделить белок от желтка с помощью ножа и ложки, вылить в керамическую тарелку. Очистить огурец, натереть на тёрке, добавить в тарелку к яйцу, смешать до однородности.нанести на лицо, подождать 15-20 минут, смыть  проточной тёплой водой</t>
+  </si>
+  <si>
+    <t>3 белка+пюре огурца, тёрка, нож, ложка, керамическая тарелка, человек</t>
+  </si>
+  <si>
+    <t>1 белок+2ст.л.белого йогурта, керамическая тарелка, нож, ложка</t>
+  </si>
+  <si>
+    <t>1 белок+1ст.л.сметаны, нож, ложка, керамическая тарелка, человек</t>
+  </si>
+  <si>
+    <t>1 белок+1ч.л.крахмала+1 ч.л. Лимонного сока, нож, кермаческая тарелка, ложка, человек</t>
+  </si>
+  <si>
+    <t>2 белка+пюре авокадо, нож, кермаческая тарелка, ложка, человек, тёрка</t>
+  </si>
+  <si>
+    <t>2 белка+пюре половины яблока,нож, кермаческая тарелка, ложка, человек,тёрка</t>
+  </si>
+  <si>
+    <t>Питательный эффект, смягчает и увлажняет кожу лица</t>
+  </si>
+  <si>
+    <t>1 белок+1 ч.л. Лимонного сока,нож, кермаческая тарелка, ложка, человек</t>
+  </si>
+  <si>
+    <t>1 белок+1 ч.л.мёда,нож, кермаческая тарелка, ложка, человек</t>
+  </si>
+  <si>
+    <t>1 белок+2ст.л.молотой петрушки,щавеля или укропа,нож, кермаческая тарелка, ложка, человек</t>
+  </si>
+  <si>
+    <t>1 белок+2 ч.л. Белой глины, нож, кермаческая тарелка, ложка, человек</t>
+  </si>
+  <si>
+    <t>1 белок+2 ч.л. Голубой глины, нож, кермаческая тарелка, ложка, человек</t>
+  </si>
+  <si>
+    <t>3 желтка+2 ст.л. Овсяных хлопьев+1 ч.л. Мёда, нож, кермаческая тарелка, ложка, человек</t>
+  </si>
+  <si>
+    <t>Отделить белок от желтка с помощью ножа и ложки, желток поместить в керамическую тарелку, добавить 2 ст.л. Овсяных хлопьеы, 1 ч.л. меда, смешать ингридиенты до однородности, нанести на лицо, подождать 15-20 минут, смыть  проточной тёплой водой</t>
+  </si>
+  <si>
+    <t>Отделить желток от белка с помощью ножа и ложки, Вылить белок в керамическую тарелку, добавить 2 ч.л. Голубой глины, Размешать ингредиенты до однородности, нанести на лицо, подождать 15-20 минут, смыть  проточной тёплой водой</t>
+  </si>
+  <si>
+    <t>Отделить желток от белка с помощью ножа и ложки, Вылить белок в керамическую тарелку, добавить 1 ч.л. Лимонного сока, Размешать ингредиенты до однородности, нанести на лицо, подождать 15-20 минут, смыть  проточной тёплой водой</t>
+  </si>
+  <si>
+    <t>Отделить желток от белка с помощью ножа и ложки, Вылить белок в керамическую тарелку, добавить 1 ч.л. Мёда, Размешать ингредиенты до однородности, нанести на лицо, подождать 15-20 минут, смыть  проточной тёплой водой</t>
+  </si>
+  <si>
+    <t>1 белок+1ст.л.пюрированных ягод, нож, кермаческая тарелка, ложка, человек, блендер</t>
+  </si>
+  <si>
+    <t>Отделить желток от белка с помощью ножа и ложки, Вылить белок в керамическую тарелку, Ягоды пюрировать с помощью блендера, добавить к белкам, Размешать ингредиенты до однородности, нанести на лицо, подождать 15-20 минут, смыть  проточной тёплой водой</t>
+  </si>
+  <si>
+    <t>2 целых яйца+1ч.л.масла миндаля,1 капля масла разморина, кермаческая тарелка, ложка чайная, нож, человек</t>
   </si>
   <si>
     <r>
@@ -193,7 +232,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Ожидаемая цель от использования масок: </t>
+      <t>Ожидаемая цель от использования масок: Улучшение для кожи лица, такие как:</t>
     </r>
     <r>
       <rPr>
@@ -204,27 +243,32 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-—прекращение воспалительных процессов;
+— прекращение воспалительных процессов;
 — обеззараживание кожи;
 — очищение и уменьшение пор;
 —  выраженный эффект лифтинга;
-— улучшение цвета кожи лица.</t>
+—  улучшение цвета кожи лица.</t>
     </r>
-  </si>
-  <si>
-    <t>нанести на лицо, подождать 15-20 минут, смыть  проточной тёплой водой</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -280,19 +324,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -305,6 +342,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -610,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,305 +678,307 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="4" spans="1:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="A7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="9" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="A9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="11" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="A11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="64.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="8" t="s">
+    <row r="14" spans="1:4" ht="199.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="9" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="188.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="C15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="73.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="8" t="s">
+    <row r="16" spans="1:4" ht="174" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="9" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="231.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="73.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="9" t="s">
+    <row r="18" spans="1:4" ht="174" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="9" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="202.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="217.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="73.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="9" t="s">
+    <row r="21" spans="1:4" ht="231.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="73.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="9" t="s">
+    <row r="22" spans="1:4" ht="231.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="73.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="8" t="s">
+    <row r="23" spans="1:4" ht="202.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="73.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="73.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="8" t="s">
+    </row>
+    <row r="24" spans="1:4" ht="217.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="202.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="174" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="188.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="73.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="8" t="s">
+    </row>
+    <row r="28" spans="1:4" ht="202.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="73.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="73.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="73.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="73.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="73.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="73.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="6"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+    <row r="30" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C34" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A30:D33"/>
+  <mergeCells count="5">
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A7:D7"/>
